--- a/election_dashboard/data/2025_ar_mapa_resultados_concelhos.xlsx
+++ b/election_dashboard/data/2025_ar_mapa_resultados_concelhos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pitad\Desktop\LEIM\3º Semestre\PCM\PCM-TP4\election_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C732C0-7051-412E-AFBA-5FAF2B8D03C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73691107-6D32-4E8C-886C-D0526701DC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A2907F1A-FA9E-47AF-9633-DD5870980A09}"/>
   </bookViews>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57082527-F10D-4C97-96F9-E28A8913DAAC}">
   <dimension ref="A1:Z310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="F269" workbookViewId="0">
+      <selection activeCell="X281" sqref="X281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
